--- a/ЗАВОДЫ/Останкино/2025/заказы/Ташкент/2025/09,25/08,09,25 Ост КИ Ташкент/дв 08,08,25 тшрсч ост ки от Лыгина.xlsx
+++ b/ЗАВОДЫ/Останкино/2025/заказы/Ташкент/2025/09,25/08,09,25 Ост КИ Ташкент/дв 08,08,25 тшрсч ост ки от Лыгина.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\08,09,25 Ост КИ Ташкент\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Останкино\2025\заказы\Ташкент\2025\09,25\08,09,25 Ост КИ Ташкент\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89C7ADF-2CB4-44E6-BC81-9E47E5C74FF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B151BF5-8CBB-4180-BAEC-0C595A15FB91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$AH$36</definedName>
   </definedNames>
@@ -408,6 +411,1332 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="машины"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="C1" t="str">
+            <v xml:space="preserve">Грузополучатель: </v>
+          </cell>
+          <cell r="D1">
+            <v>130500100</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>OOO "MOS PROD TORG"</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3" t="str">
+            <v xml:space="preserve">Дата отгрузки с ОМПК: </v>
+          </cell>
+          <cell r="E3" t="str">
+            <v xml:space="preserve">Доставка: </v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>Самовывоз</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4" t="str">
+            <v xml:space="preserve">Место отгрузки: </v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>г. Москва, Огородный проезд, д. 18 стр. 18</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5" t="str">
+            <v xml:space="preserve">Ответственные: </v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v xml:space="preserve">Москва :  </v>
+          </cell>
+          <cell r="G6" t="str">
+            <v>тел: 8 (495) 980-53-93, доб. 39-06</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>ЗАКАЗ</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>Тип заказа:</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>ZOR</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>Название материала</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>ЕИ</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>Код материала</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>Заказ кг/шт</v>
+          </cell>
+          <cell r="F9" t="str">
+            <v>Вес нетто,  кг</v>
+          </cell>
+          <cell r="G9" t="str">
+            <v>Вес нетто короба,      кг</v>
+          </cell>
+          <cell r="H9" t="str">
+            <v>Срок реализации, суток</v>
+          </cell>
+          <cell r="I9" t="str">
+            <v>Примечание</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>Вареные колбасы</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>КЛАССИЧЕСКАЯ ПМ вар п/о 0.35 кг</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D11">
+            <v>1001013957231</v>
+          </cell>
+          <cell r="F11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>КЛАССИЧЕСКАЯ Коровино вар п/о(обвязка)</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>КГ</v>
+          </cell>
+          <cell r="D12">
+            <v>1001013956859</v>
+          </cell>
+          <cell r="F12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>РУССКАЯ ПРЕМИУМ ПМ вар ф/о в/у</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>КГ</v>
+          </cell>
+          <cell r="D13">
+            <v>1001010855247</v>
+          </cell>
+          <cell r="F13">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>ДОКТОРСКАЯ ПРЕМИУМ вар б/о мгс_30с</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>КГ</v>
+          </cell>
+          <cell r="D14">
+            <v>1001010105246</v>
+          </cell>
+          <cell r="F14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>ДОКТОРСКАЯ ПРЕМИУМ вар п/о 0.4кг 8шт.</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D15">
+            <v>1001010106325</v>
+          </cell>
+          <cell r="F15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>МЯСНАЯ Папа может вар п/о 0.4кг_СНГ</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D16">
+            <v>1001012486334</v>
+          </cell>
+          <cell r="F16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>МЯСНАЯ Папа может вар п/о_СНГ</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>КГ</v>
+          </cell>
+          <cell r="D17">
+            <v>1001012484405</v>
+          </cell>
+          <cell r="F17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>МЯСНАЯ СО ШПИКОМ Папа может вар п/о_СНГ</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>КГ</v>
+          </cell>
+          <cell r="D18">
+            <v>1001012634408</v>
+          </cell>
+          <cell r="F18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>ФИЛЕЙНАЯ Папа может вар п/о 0.5кг_СНГ</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D19">
+            <v>1001012566346</v>
+          </cell>
+          <cell r="F19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>ФИЛЕЙНАЯ Папа может вар п/о_СНГ</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>КГ</v>
+          </cell>
+          <cell r="D20">
+            <v>1001012564335</v>
+          </cell>
+          <cell r="F20">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>ЭКСТРА Папа может вар п/о 0.4кг_СНГ</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D21">
+            <v>1001012506354</v>
+          </cell>
+          <cell r="F21">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>ЭКСТРА Папа может вар п/о_СНГ</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>КГ</v>
+          </cell>
+          <cell r="D22">
+            <v>1001012503220</v>
+          </cell>
+          <cell r="E22">
+            <v>30</v>
+          </cell>
+          <cell r="F22">
+            <v>30</v>
+          </cell>
+          <cell r="H22" t="str">
+            <v>нет</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>ДОКТОРСКАЯ ГОСТ вар п/о</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>КГ</v>
+          </cell>
+          <cell r="D23">
+            <v>1001010014555</v>
+          </cell>
+          <cell r="F23">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>СЛИВОЧНАЯ Коровино вар п/о</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>КГ</v>
+          </cell>
+          <cell r="D24">
+            <v>1001010116327</v>
+          </cell>
+          <cell r="F24">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>ДОМАШНИЙ РЕЦЕПТ Коровино вар п/о</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>КГ</v>
+          </cell>
+          <cell r="D25">
+            <v>1001015646861</v>
+          </cell>
+          <cell r="F25">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>ГОВЯЖЬЯ Папа может вар п/о 0.4кг 8шт.</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D26">
+            <v>1001012426268</v>
+          </cell>
+          <cell r="E26">
+            <v>120</v>
+          </cell>
+          <cell r="F26">
+            <v>48</v>
+          </cell>
+          <cell r="H26" t="str">
+            <v>нет</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>ГОВЯЖЬЯ Папа может вар п/о</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>КГ</v>
+          </cell>
+          <cell r="D27">
+            <v>1001012426220</v>
+          </cell>
+          <cell r="E27">
+            <v>30</v>
+          </cell>
+          <cell r="F27">
+            <v>30</v>
+          </cell>
+          <cell r="H27" t="str">
+            <v>нет</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>В ОБВЯЗКЕ вар п/о</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>КГ</v>
+          </cell>
+          <cell r="D28">
+            <v>1001015676877</v>
+          </cell>
+          <cell r="F28">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>В ОБВЯЗКЕ СО ШПИКОМ вар п/о</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>КГ</v>
+          </cell>
+          <cell r="D29">
+            <v>1001015686878</v>
+          </cell>
+          <cell r="F29">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>Сосиски</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>РУБЛЕНЫЕ сос ц/о мгс 0.36кг 6шт.</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D31">
+            <v>1001023696765</v>
+          </cell>
+          <cell r="F31">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>С СЫРОМ сос ц/о мгс 0.41кг 6шт.</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D32">
+            <v>1001025176768</v>
+          </cell>
+          <cell r="F32">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>ИСПАНСКИЕ сос ц/о мгс 0.41кг 6шт.</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D33">
+            <v>1001025486770</v>
+          </cell>
+          <cell r="F33">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>БАВАРСКИЕ ПМ сос ц/о мгс 0.35кг 8шт.</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D34">
+            <v>1001021966602</v>
+          </cell>
+          <cell r="F34">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>СОЧНЫЙ ГРИЛЬ ПМ сос п/о мгс 0.41кг 8шт.</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D35">
+            <v>1001022246713</v>
+          </cell>
+          <cell r="F35">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="str">
+            <v>КОПЧЕНЫЕ сос п/о мгс 0.45кг 7шт.</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D36">
+            <v>1001022246240</v>
+          </cell>
+          <cell r="F36">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>МОЛОЧНЫЕ ПМ сос п/о мгс 0.41кг 10шт_СНГ</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D37">
+            <v>1001020837151</v>
+          </cell>
+          <cell r="F37">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="str">
+            <v>МОЛОЧНЫЕ ПРЕМИУМ ПМ сос п/о мгс 0.6кг</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D38">
+            <v>1001022656854</v>
+          </cell>
+          <cell r="F38">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39" t="str">
+            <v>МОЛОЧ.ПРЕМИУМ ПМ сос п/о мгс 1.5*4_О_50с</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>КГ</v>
+          </cell>
+          <cell r="D39">
+            <v>1001022657075</v>
+          </cell>
+          <cell r="F39">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>МЯСНЫЕ Папа может сос п/о в/у 0.4кг_45с</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D40">
+            <v>1001022725819</v>
+          </cell>
+          <cell r="F40">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41" t="str">
+            <v>МЯСНЫЕ С ГОВЯД.ПМ сос п/о мгс 0.4кг_50с</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D41">
+            <v>1001025507077</v>
+          </cell>
+          <cell r="F41">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42" t="str">
+            <v>СЛИВОЧНЫЕ ПМ сос п/о мгс 0.41кг 10шт.</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D42">
+            <v>1001022466726</v>
+          </cell>
+          <cell r="F42">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43" t="str">
+            <v>МОЛОЧНЫЕ ГОСТ сос ц/о мгс 0.4кг 7шт.</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D43">
+            <v>1001020836759</v>
+          </cell>
+          <cell r="F43">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44" t="str">
+            <v>СОЧНЫЕ ПМ сос п/о в/у 1/350 8шт_50с</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D44">
+            <v>1001022377064</v>
+          </cell>
+          <cell r="F44">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45" t="str">
+            <v>СОЧНЫЕ ПМ сос п/о мгс 0.41кг_СНГ_50с</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D45">
+            <v>1001022377067</v>
+          </cell>
+          <cell r="F45">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46" t="str">
+            <v>СОЧНЫЕ ПМ сос п/о мгс 1.5*4_А_50с</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v>КГ</v>
+          </cell>
+          <cell r="D46">
+            <v>1001022377070</v>
+          </cell>
+          <cell r="F46">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47" t="str">
+            <v>С ГОВЯДИНОЙ ПМ сос п/о мгс 1кг 6шт.</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>КГ</v>
+          </cell>
+          <cell r="D47">
+            <v>1001023857037</v>
+          </cell>
+          <cell r="F47">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="str">
+            <v>МЯСНЫЕ ПМ сос п/о мгс 1*3_СНГ_45с</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>КГ</v>
+          </cell>
+          <cell r="D48">
+            <v>1001022726303</v>
+          </cell>
+          <cell r="F48">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49" t="str">
+            <v>ФИЛЕЙНЫЕ Папа может сос ц/о мгс 0.72*4</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v>КГ</v>
+          </cell>
+          <cell r="D49">
+            <v>1001022557244</v>
+          </cell>
+          <cell r="F49">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50" t="str">
+            <v>ФИЛЕЙНЫЕ Папа может сос ц/о мгс 1.5*2</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>КГ</v>
+          </cell>
+          <cell r="D50">
+            <v>1001022556254</v>
+          </cell>
+          <cell r="F50">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51" t="str">
+            <v>ФИЛЕЙНЫЕ Папа Может сос ц/о мгс 0.4кг</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D51">
+            <v>1001022556837</v>
+          </cell>
+          <cell r="F51">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52" t="str">
+            <v>Сардельки</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53" t="str">
+            <v>МЯСНЫЕ Папа может сар б/о мгс 1*3_СНГ</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>КГ</v>
+          </cell>
+          <cell r="D53">
+            <v>1001032736549</v>
+          </cell>
+          <cell r="F53">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54" t="str">
+            <v>С ГОВЯДИНОЙ ПМ сар б/о мгс 0.4кг_45с</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D54">
+            <v>1001033856609</v>
+          </cell>
+          <cell r="F54">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55" t="str">
+            <v>ШПИКАЧКИ СОЧНЫЕ С БЕК. п/о мгс 0.3кг_60с</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>КГ</v>
+          </cell>
+          <cell r="D55">
+            <v>1001035277059</v>
+          </cell>
+          <cell r="F55">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56" t="str">
+            <v>ШПИКАЧКИ СОЧНЫЕ С БЕКОНОМ п/о мгс 1*3</v>
+          </cell>
+          <cell r="C56" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D56">
+            <v>1001035277058</v>
+          </cell>
+          <cell r="F56">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57" t="str">
+            <v>ШПИКАЧКИ СОЧНЫЕ сар б/о мгс 1*3 Ашан 45с</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>КГ</v>
+          </cell>
+          <cell r="D57">
+            <v>1001031076548</v>
+          </cell>
+          <cell r="F57">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58" t="str">
+            <v>СЫТНЫЕ Папа может сар б/о мгс 1*3_Маяк</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v>КГ</v>
+          </cell>
+          <cell r="D58">
+            <v>1001034065698</v>
+          </cell>
+          <cell r="F58">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59" t="str">
+            <v>Полукопченые колбасы</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60" t="str">
+            <v>БОЯNСКАЯ Папа может п/к в/у 0.28кг_СНГ</v>
+          </cell>
+          <cell r="C60" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D60">
+            <v>1001302277174</v>
+          </cell>
+          <cell r="F60">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61" t="str">
+            <v>БОЯРСКАЯ ПМ п/к в/у 0.28кг_СНГ</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D61">
+            <v>7332</v>
+          </cell>
+          <cell r="E61">
+            <v>120</v>
+          </cell>
+          <cell r="F61">
+            <v>33.6</v>
+          </cell>
+          <cell r="H61" t="str">
+            <v>нет</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62" t="str">
+            <v>САЛЯМИ Папа может п/к в/у 0.28кг_209к</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D62">
+            <v>1001303107241</v>
+          </cell>
+          <cell r="F62">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63" t="str">
+            <v>ЧЕСНОЧНАЯ Папа может п/к в/у 0.35кг СНГ</v>
+          </cell>
+          <cell r="C63" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D63">
+            <v>1001302347176</v>
+          </cell>
+          <cell r="F63">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64" t="str">
+            <v>Варенокопченые колбасы</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65" t="str">
+            <v>СЕРВЕЛАТ КОПЧ.НА БУКЕ в/к в/у 0.35кг_СНГ</v>
+          </cell>
+          <cell r="C65" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D65">
+            <v>1001304237158</v>
+          </cell>
+          <cell r="F65">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66" t="str">
+            <v>СЕРВЕЛАТ КОПЧЕНЫЙ НА БУКЕ в/к в/у_СНГ</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v>КГ</v>
+          </cell>
+          <cell r="D66">
+            <v>1001304237159</v>
+          </cell>
+          <cell r="F66">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67" t="str">
+            <v>СЕРВЕЛАТ КАРЕЛЬСКИЙ ПМ вк в/у 0.28кг_СНГ</v>
+          </cell>
+          <cell r="C67" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D67">
+            <v>1001304507230</v>
+          </cell>
+          <cell r="F67">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68" t="str">
+            <v>СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у</v>
+          </cell>
+          <cell r="C68" t="str">
+            <v>КГ</v>
+          </cell>
+          <cell r="D68">
+            <v>1001300366790</v>
+          </cell>
+          <cell r="F68">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69" t="str">
+            <v>СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у 0.33кг 8шт.</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D69">
+            <v>1001300366807</v>
+          </cell>
+          <cell r="E69">
+            <v>160</v>
+          </cell>
+          <cell r="F69">
+            <v>52.800000000000004</v>
+          </cell>
+          <cell r="H69" t="str">
+            <v>нет</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70" t="str">
+            <v>СЕРВЕЛАТ С БЕЛ.ГРИБАМИ в/к в/у 0.31кг</v>
+          </cell>
+          <cell r="C70" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D70">
+            <v>1001305306566</v>
+          </cell>
+          <cell r="F70">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71" t="str">
+            <v>СЕРВЕЛАТ ОРЕХОВЫЙ ПМ в/к в/у 0.31кг 8шт.</v>
+          </cell>
+          <cell r="C71" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D71">
+            <v>1001305197238</v>
+          </cell>
+          <cell r="F71">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72" t="str">
+            <v>СЕРВЕЛАТ С АРОМ.ТРАВАМИ в/к в/у 0.31кг</v>
+          </cell>
+          <cell r="C72" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D72">
+            <v>1001305316565</v>
+          </cell>
+          <cell r="F72">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73" t="str">
+            <v>СЕРВЕЛАТ ОХОТНИЧИЙ в/к в/у 0.35кг_СНГ</v>
+          </cell>
+          <cell r="C73" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D73">
+            <v>1001303987162</v>
+          </cell>
+          <cell r="F73">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74" t="str">
+            <v>СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у 0.28кг_СНГ</v>
+          </cell>
+          <cell r="C74" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D74">
+            <v>7333</v>
+          </cell>
+          <cell r="F74">
+            <v>0</v>
+          </cell>
+          <cell r="H74" t="str">
+            <v>нет</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75" t="str">
+            <v>СЕРВЕЛАТ ОХОТНИЧИЙ в/к в/у_СНГ</v>
+          </cell>
+          <cell r="C75" t="str">
+            <v>КГ</v>
+          </cell>
+          <cell r="D75">
+            <v>1001303987165</v>
+          </cell>
+          <cell r="F75">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="B76" t="str">
+            <v>СЕРВЕЛАТ ФИНСКИЙ ПМ в/к в/у 0.35кг_СНГ</v>
+          </cell>
+          <cell r="C76" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D76">
+            <v>1001301876698</v>
+          </cell>
+          <cell r="F76">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="B77" t="str">
+            <v>СЕРВЕЛАТ ФИНСКИЙ в/к в/у_СНГ</v>
+          </cell>
+          <cell r="C77" t="str">
+            <v>КГ</v>
+          </cell>
+          <cell r="D77">
+            <v>1001051875607</v>
+          </cell>
+          <cell r="F77">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="B78" t="str">
+            <v>СЕРВЕЛАТ КРЕМЛЕВСКИЙ в/к в/у 0.33кг 8шт.</v>
+          </cell>
+          <cell r="C78" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D78">
+            <v>1001300456787</v>
+          </cell>
+          <cell r="F78">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="B79" t="str">
+            <v>СЕРВЕЛАТ КРЕМЛЕВСКИЙ в/к в/у 0.84кг</v>
+          </cell>
+          <cell r="C79" t="str">
+            <v>КГ</v>
+          </cell>
+          <cell r="D79">
+            <v>1001300456946</v>
+          </cell>
+          <cell r="F79">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="B80" t="str">
+            <v>Сырокопченые колбасы</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81" t="str">
+            <v>АРОМАТНАЯ Папа может с/к в/у 1/250_СНГ</v>
+          </cell>
+          <cell r="C81" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D81">
+            <v>1001061975738</v>
+          </cell>
+          <cell r="F81">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="B82" t="str">
+            <v>ПОСОЛЬСКАЯ Папа может с/к в/у</v>
+          </cell>
+          <cell r="C82" t="str">
+            <v>КГ</v>
+          </cell>
+          <cell r="D82">
+            <v>1001063145708</v>
+          </cell>
+          <cell r="F82">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="B83" t="str">
+            <v>САЛЯМИ ИТАЛЬЯНСКАЯ с/к в/у 1/250*8_120с</v>
+          </cell>
+          <cell r="C83" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D83">
+            <v>1001060764993</v>
+          </cell>
+          <cell r="F83">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="B84" t="str">
+            <v>ЭКСТРА Папа может с/к с/н в/у 1/100 14шт</v>
+          </cell>
+          <cell r="C84" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D84">
+            <v>1001202506453</v>
+          </cell>
+          <cell r="F84">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="B85" t="str">
+            <v>ЭКСТРА Папа может с/к в/у_Л</v>
+          </cell>
+          <cell r="C85" t="str">
+            <v>КГ</v>
+          </cell>
+          <cell r="D85">
+            <v>1001062504117</v>
+          </cell>
+          <cell r="F85">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="B86" t="str">
+            <v>САЛЯМИ ИТАЛЬЯНСКАЯ с/к в/у 1/150_СНГ_60с</v>
+          </cell>
+          <cell r="C86" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D86">
+            <v>1001190765681</v>
+          </cell>
+          <cell r="F86">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="B87" t="str">
+            <v>ЮБИЛЕЙНАЯ Папа может с/к в/у 1/250_СНГ</v>
+          </cell>
+          <cell r="C87" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D87">
+            <v>1001062475739</v>
+          </cell>
+          <cell r="F87">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="B88" t="str">
+            <v>АРОМАТНАЯ с/к в/у</v>
+          </cell>
+          <cell r="C88" t="str">
+            <v>КГ</v>
+          </cell>
+          <cell r="D88">
+            <v>1001061971146</v>
+          </cell>
+          <cell r="F88">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="B89" t="str">
+            <v>ЮБИЛЕЙНАЯ с/к в/у_Л</v>
+          </cell>
+          <cell r="C89" t="str">
+            <v>КГ</v>
+          </cell>
+          <cell r="D89">
+            <v>1001062474154</v>
+          </cell>
+          <cell r="F89">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="B90" t="str">
+            <v>ПОСОЛЬСКАЯ ПМ с/к с/н в/у 1/100 10шт_СНГ</v>
+          </cell>
+          <cell r="C90" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D90">
+            <v>1001203146835</v>
+          </cell>
+          <cell r="F90">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91" t="str">
+            <v>Ветчины</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92" t="str">
+            <v>ВЕТЧ.МЯСНАЯ Папа может п/о 0.4кг 8шт.</v>
+          </cell>
+          <cell r="C92" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D92">
+            <v>1001094053215</v>
+          </cell>
+          <cell r="F92">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93" t="str">
+            <v>ВЕТЧ.МЯСНАЯ Папа может п/о</v>
+          </cell>
+          <cell r="C93" t="str">
+            <v>КГ</v>
+          </cell>
+          <cell r="D93">
+            <v>1001092485452</v>
+          </cell>
+          <cell r="F93">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94" t="str">
+            <v>Копчености варенокопченые</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="B95" t="str">
+            <v>КАРБОНAД СТОЛИЧНЫЙ ПМ к/в кр/к в/у_СНГ</v>
+          </cell>
+          <cell r="C95" t="str">
+            <v>КГ</v>
+          </cell>
+          <cell r="D95">
+            <v>1001080345074</v>
+          </cell>
+          <cell r="F95">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="B96" t="str">
+            <v>ОКОРОК КОПЧЕНЫЙ к/в мл/к в/у 0.3кг_СНГ</v>
+          </cell>
+          <cell r="C96" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D96">
+            <v>1001083446207</v>
+          </cell>
+          <cell r="F96">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="B97" t="str">
+            <v>СВИНИНА ПО-ДОМАШ. к/в мл/к в/у 0.3кг_СНГ</v>
+          </cell>
+          <cell r="C97" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D97">
+            <v>1001084217089</v>
+          </cell>
+          <cell r="F97">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="B98" t="str">
+            <v>ГРУДИНКА ПРЕМИУМ к/в мл/к в/у 0.3кг_50с</v>
+          </cell>
+          <cell r="C98" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D98">
+            <v>1001085637187</v>
+          </cell>
+          <cell r="F98">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="B99" t="str">
+            <v>БЕКОН Останкино с/к с/н в/у 1/180_СНГ_50</v>
+          </cell>
+          <cell r="C99" t="str">
+            <v>ШТ</v>
+          </cell>
+          <cell r="D99">
+            <v>1001223297104</v>
+          </cell>
+          <cell r="F99">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="B100" t="str">
+            <v>ВСЕГО:</v>
+          </cell>
+          <cell r="E100">
+            <v>460</v>
+          </cell>
+          <cell r="F100">
+            <v>194.4</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -699,7 +2028,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
+      <selection pane="bottomRight" activeCell="AK11" sqref="AK11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,7 +2403,7 @@
       </c>
       <c r="R5" s="4">
         <f t="shared" si="0"/>
-        <v>5960</v>
+        <v>6420</v>
       </c>
       <c r="S5" s="4">
         <f t="shared" si="0"/>
@@ -1126,7 +2455,7 @@
       <c r="AG5" s="1"/>
       <c r="AH5" s="4">
         <f>SUM(AH6:AH500)</f>
-        <v>3002</v>
+        <v>3196.4</v>
       </c>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
@@ -3193,7 +4522,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R24" s="5"/>
+      <c r="R24" s="5">
+        <f>IFERROR(VLOOKUP(A24,[1]машины!$B:$I,4,0),0)</f>
+        <v>0</v>
+      </c>
       <c r="S24" s="13"/>
       <c r="T24" s="11"/>
       <c r="U24" s="11" t="e">
@@ -3290,7 +4622,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R25" s="5"/>
+      <c r="R25" s="5">
+        <f>IFERROR(VLOOKUP(A25,[1]машины!$B:$I,4,0),0)</f>
+        <v>120</v>
+      </c>
       <c r="S25" s="13"/>
       <c r="T25" s="11"/>
       <c r="U25" s="11" t="e">
@@ -3334,7 +4669,7 @@
       <c r="AG25" s="11"/>
       <c r="AH25" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>33.6</v>
       </c>
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
@@ -3387,7 +4722,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R26" s="5"/>
+      <c r="R26" s="5">
+        <f>IFERROR(VLOOKUP(A26,[1]машины!$B:$I,4,0),0)</f>
+        <v>30</v>
+      </c>
       <c r="S26" s="13"/>
       <c r="T26" s="11"/>
       <c r="U26" s="11" t="e">
@@ -3431,7 +4769,7 @@
       <c r="AG26" s="11"/>
       <c r="AH26" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
@@ -3484,7 +4822,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R27" s="5"/>
+      <c r="R27" s="5">
+        <f>IFERROR(VLOOKUP(A27,[1]машины!$B:$I,4,0),0)</f>
+        <v>120</v>
+      </c>
       <c r="S27" s="13"/>
       <c r="T27" s="11"/>
       <c r="U27" s="11" t="e">
@@ -3528,7 +4869,7 @@
       <c r="AG27" s="11"/>
       <c r="AH27" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
@@ -3581,7 +4922,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R28" s="5"/>
+      <c r="R28" s="5">
+        <f>IFERROR(VLOOKUP(A28,[1]машины!$B:$I,4,0),0)</f>
+        <v>0</v>
+      </c>
       <c r="S28" s="13"/>
       <c r="T28" s="11"/>
       <c r="U28" s="11" t="e">
@@ -3678,7 +5022,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R29" s="5"/>
+      <c r="R29" s="5">
+        <f>IFERROR(VLOOKUP(A29,[1]машины!$B:$I,4,0),0)</f>
+        <v>0</v>
+      </c>
       <c r="S29" s="13"/>
       <c r="T29" s="11"/>
       <c r="U29" s="11" t="e">
@@ -3775,7 +5122,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R30" s="5"/>
+      <c r="R30" s="5">
+        <f>IFERROR(VLOOKUP(A30,[1]машины!$B:$I,4,0),0)</f>
+        <v>160</v>
+      </c>
       <c r="S30" s="13"/>
       <c r="T30" s="11"/>
       <c r="U30" s="11" t="e">
@@ -3819,7 +5169,7 @@
       <c r="AG30" s="11"/>
       <c r="AH30" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>52.800000000000004</v>
       </c>
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
@@ -3872,7 +5222,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R31" s="5"/>
+      <c r="R31" s="5">
+        <f>IFERROR(VLOOKUP(A31,[1]машины!$B:$I,4,0),0)</f>
+        <v>0</v>
+      </c>
       <c r="S31" s="13"/>
       <c r="T31" s="11"/>
       <c r="U31" s="11" t="e">
@@ -3969,7 +5322,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R32" s="5"/>
+      <c r="R32" s="5">
+        <f>IFERROR(VLOOKUP(A32,[1]машины!$B:$I,4,0),0)</f>
+        <v>0</v>
+      </c>
       <c r="S32" s="13"/>
       <c r="T32" s="11"/>
       <c r="U32" s="11" t="e">
@@ -4066,7 +5422,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R33" s="5"/>
+      <c r="R33" s="5">
+        <f>IFERROR(VLOOKUP(A33,[1]машины!$B:$I,4,0),0)</f>
+        <v>0</v>
+      </c>
       <c r="S33" s="13"/>
       <c r="T33" s="11"/>
       <c r="U33" s="11" t="e">
@@ -4163,7 +5522,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R34" s="5"/>
+      <c r="R34" s="5">
+        <f>IFERROR(VLOOKUP(A34,[1]машины!$B:$I,4,0),0)</f>
+        <v>0</v>
+      </c>
       <c r="S34" s="13"/>
       <c r="T34" s="11"/>
       <c r="U34" s="11" t="e">
@@ -4260,7 +5622,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R35" s="5"/>
+      <c r="R35" s="5">
+        <f>IFERROR(VLOOKUP(A35,[1]машины!$B:$I,4,0),0)</f>
+        <v>0</v>
+      </c>
       <c r="S35" s="13"/>
       <c r="T35" s="11"/>
       <c r="U35" s="11" t="e">
@@ -4357,7 +5722,10 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R36" s="5"/>
+      <c r="R36" s="5">
+        <f>IFERROR(VLOOKUP(A36,[1]машины!$B:$I,4,0),0)</f>
+        <v>30</v>
+      </c>
       <c r="S36" s="13"/>
       <c r="T36" s="11"/>
       <c r="U36" s="11" t="e">
@@ -4401,7 +5769,7 @@
       <c r="AG36" s="11"/>
       <c r="AH36" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI36" s="1"/>
       <c r="AJ36" s="1"/>
